--- a/src/flagged-sections.xlsx
+++ b/src/flagged-sections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\projects\cochlea\apps\cochlea-grad-quant.git\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5616FD88-7343-4F22-AA4A-9F7E9911D8C8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA385E56-ED4A-4E97-82DE-EC0BC78F7373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1886" yWindow="1886" windowWidth="24685" windowHeight="13260" xr2:uid="{CF99C321-C110-42B2-82EF-979FD9F80082}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18274" xr2:uid="{CF99C321-C110-42B2-82EF-979FD9F80082}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="34">
   <si>
     <t>cochlea_idx</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>P-Smad + Sox2: both look OK. Speckling in P-Smad channel. Kind of grazing.</t>
+  </si>
+  <si>
+    <t>Some significant speckling in P-Smad.</t>
   </si>
 </sst>
 </file>
@@ -503,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{353D6650-6CFF-4807-B49B-A90BAB15FD70}">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1020,22 +1023,22 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="B26">
+        <v>57</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.4">
@@ -1043,16 +1046,16 @@
         <v>13.5</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
         <v>11</v>
@@ -1063,16 +1066,16 @@
         <v>13.5</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" t="s">
         <v>11</v>
@@ -1083,16 +1086,16 @@
         <v>13.5</v>
       </c>
       <c r="B29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>11</v>
@@ -1103,16 +1106,16 @@
         <v>13.5</v>
       </c>
       <c r="B30">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
         <v>11</v>
@@ -1123,19 +1126,19 @@
         <v>13.5</v>
       </c>
       <c r="B31">
-        <v>8</v>
-      </c>
-      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.4">
@@ -1143,18 +1146,38 @@
         <v>13.5</v>
       </c>
       <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>13.5</v>
+      </c>
+      <c r="B33">
         <v>9</v>
       </c>
-      <c r="C32" t="s">
-        <v>4</v>
-      </c>
-      <c r="D32">
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>30</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>6</v>
       </c>
     </row>
